--- a/data/39_MIBiG_Methyltransf_21_lit_dat_manually_curated.xlsx
+++ b/data/39_MIBiG_Methyltransf_21_lit_dat_manually_curated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serinarobinson/Documents/github/fkbm-bioinformatics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{821395F0-2A5D-A546-BCD5-96520CDF7E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EA51244F-9F1B-E34E-B1DF-803D03C7FC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="520" windowWidth="27060" windowHeight="16560"/>
+    <workbookView xWindow="80" yWindow="520" windowWidth="25600" windowHeight="16560"/>
   </bookViews>
   <sheets>
     <sheet name="39_MIBiG_Methyltransf_21_lit_da" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="402">
   <si>
     <t>bgc</t>
   </si>
@@ -52,9 +52,6 @@
     <t>MTTGQSLSPAEFTLPDGRVIFCTNERNAELIWHEMSTSVYLREQEKLPDDATIIDVGAHFGLFSLHTASGLANARVLACEPASATFDCLYRNFAAHLPGGTALRTAVADRSGTVELTYYPANETIATIEVDEEDDQRNISAVFANVGADPAQSEAYCSELRRAAERYPVPVTTIAQLFADHDLDTVDLLKIDVERAELAVLRGIGEANWPRIRTVSVEVHDLDGRLNEVVSLLSAKGYRTEQLQQDLYKGSSVHIVRAHRP</t>
   </si>
   <si>
-    <t>mibig</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nocardiopsis sp. FU 40 </t>
   </si>
   <si>
@@ -646,9 +643,6 @@
     <t>comments</t>
   </si>
   <si>
-    <t>to_include</t>
-  </si>
-  <si>
     <t>part_of_biosynthesis</t>
   </si>
   <si>
@@ -667,13 +661,7 @@
     <t>O-methylation of L-Glu to AMB</t>
   </si>
   <si>
-    <t>predicted</t>
-  </si>
-  <si>
     <t>experimental_evidence</t>
-  </si>
-  <si>
-    <t>MS_only</t>
   </si>
   <si>
     <t>10.3389/fmicb.2015.00170</t>
@@ -869,9 +857,6 @@
   </si>
   <si>
     <t xml:space="preserve">10.1074/jbc.M112.401026 </t>
-  </si>
-  <si>
-    <t>check with Piel lab</t>
   </si>
   <si>
     <t>pellasoren</t>
@@ -1439,6 +1424,132 @@
   </si>
   <si>
     <t>unknown, outside of named gene cluster</t>
+  </si>
+  <si>
+    <t>include_in_tree</t>
+  </si>
+  <si>
+    <t>outside of BGC and not involved in biosynthesis</t>
+  </si>
+  <si>
+    <t>outside of BGC boundaries, not involved in biosynthesis</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.0</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.1</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.2</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.3</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.4</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.5</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.6</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.7</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.8</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.9</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.10</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.11</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.12</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.13</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.14</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.15</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.16</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.17</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.18</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.19</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.20</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.21</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.22</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.23</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.24</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.25</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.26</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.27</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.28</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.29</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.30</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.31</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.32</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.33</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.34</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.35</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.36</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.37</t>
+  </si>
+  <si>
+    <t>MIBiG v 2.38</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1731,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1802,12 +1913,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1974,21 +2079,20 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2347,9 +2451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2359,8 +2463,8 @@
     <col min="4" max="4" width="7.33203125" customWidth="1"/>
     <col min="5" max="5" width="36.83203125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="4"/>
+    <col min="8" max="8" width="17.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="3"/>
     <col min="12" max="12" width="21.33203125" customWidth="1"/>
     <col min="13" max="13" width="16.6640625" customWidth="1"/>
     <col min="14" max="14" width="23.1640625" customWidth="1"/>
@@ -2388,82 +2492,82 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1" t="s">
         <v>204</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>205</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O1" t="s">
+        <v>360</v>
+      </c>
+      <c r="P1" t="s">
         <v>206</v>
       </c>
-      <c r="L1" t="s">
-        <v>209</v>
-      </c>
-      <c r="M1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O1" t="s">
-        <v>208</v>
-      </c>
-      <c r="P1" t="s">
-        <v>207</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="I2" s="10">
+      <c r="H2" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="I2" s="5">
         <v>25855790</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="P2" t="s">
-        <v>362</v>
+      <c r="J2" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -2476,1865 +2580,1872 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="H3" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I3" s="3">
         <v>21869849</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>305</v>
+      <c r="J3" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="K3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="L3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M3" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="N3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="H4" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I4" s="3">
         <v>12039053</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>308</v>
+      <c r="J4" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="K4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M4" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="N4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
         <v>154</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>155</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" t="s">
         <v>156</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>157</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="H5" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="I5" s="3">
         <v>27072286</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>325</v>
+      <c r="J5" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="K5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M5" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="N5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" t="s">
         <v>159</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>160</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" t="s">
         <v>161</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
         <v>162</v>
       </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I6" s="3">
+        <v>29194875</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K6" t="s">
+        <v>254</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M6" t="s">
         <v>251</v>
       </c>
-      <c r="I6" s="4">
-        <v>29194875</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="K6" t="s">
-        <v>258</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="M6" t="s">
-        <v>255</v>
-      </c>
       <c r="N6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
         <v>103</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>104</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E7" t="s">
         <v>105</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
         <v>106</v>
       </c>
-      <c r="F7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I7" s="3">
         <v>19171307</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>264</v>
+      <c r="J7" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="K7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" t="s">
         <v>174</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>175</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E8" t="s">
         <v>176</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
         <v>177</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="H8" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I8" s="3">
         <v>23288898</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>329</v>
+      <c r="J8" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="K8" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" t="s">
         <v>189</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>190</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E9" t="s">
         <v>191</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
         <v>192</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>193</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="H9" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="I9" s="3">
         <v>26514647</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>333</v>
+      <c r="J9" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="K9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L9" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P9" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
         <v>112</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>113</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E10" t="s">
         <v>114</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
         <v>115</v>
       </c>
-      <c r="F10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="H10" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I10" s="3">
         <v>23012376</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>272</v>
+      <c r="J10" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="K10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O10" t="s">
-        <v>225</v>
-      </c>
-      <c r="P10" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
         <v>117</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>118</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E11" t="s">
         <v>119</v>
       </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
         <v>120</v>
       </c>
-      <c r="F11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="H11" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I11" s="3">
         <v>23012376</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>274</v>
+      <c r="J11" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="K11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O11" t="s">
-        <v>225</v>
-      </c>
-      <c r="P11" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
         <v>122</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>123</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
         <v>124</v>
       </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="H12" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="I12" s="3">
         <v>22488911</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>277</v>
+      <c r="J12" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="K12" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L12" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" t="s">
-        <v>168</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="H13" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I13" s="5">
         <v>27655321</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="K13" t="s">
-        <v>241</v>
-      </c>
-      <c r="L13" t="s">
-        <v>246</v>
-      </c>
-      <c r="M13" t="s">
-        <v>255</v>
-      </c>
-      <c r="N13" t="s">
-        <v>224</v>
-      </c>
-      <c r="O13" t="s">
-        <v>225</v>
-      </c>
-      <c r="P13"/>
+      <c r="J13" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
         <v>92</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>93</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E14" t="s">
         <v>94</v>
       </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
         <v>95</v>
       </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="H14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I14" s="3">
         <v>19478828</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>250</v>
+      <c r="J14" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="K14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L14" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
         <v>108</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>109</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
         <v>110</v>
       </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I15" s="3">
+        <v>10863099</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K15" t="s">
+        <v>262</v>
+      </c>
+      <c r="L15" t="s">
+        <v>263</v>
+      </c>
+      <c r="M15" t="s">
+        <v>251</v>
+      </c>
+      <c r="N15" t="s">
+        <v>221</v>
+      </c>
+      <c r="O15" t="s">
+        <v>221</v>
+      </c>
+      <c r="P15" t="s">
         <v>265</v>
-      </c>
-      <c r="I15" s="4">
-        <v>10863099</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="K15" t="s">
-        <v>266</v>
-      </c>
-      <c r="L15" t="s">
-        <v>267</v>
-      </c>
-      <c r="M15" t="s">
-        <v>255</v>
-      </c>
-      <c r="N15" t="s">
-        <v>225</v>
-      </c>
-      <c r="O15" t="s">
-        <v>225</v>
-      </c>
-      <c r="P15" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
         <v>97</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>98</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E16" t="s">
         <v>99</v>
       </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>100</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>101</v>
       </c>
-      <c r="G16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I16" s="3">
+        <v>24974231</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="I16" s="4">
-        <v>24974231</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="K16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M16" t="s">
+        <v>251</v>
+      </c>
+      <c r="N16" t="s">
+        <v>220</v>
+      </c>
+      <c r="O16" t="s">
+        <v>221</v>
+      </c>
+      <c r="P16" t="s">
         <v>255</v>
-      </c>
-      <c r="N16" t="s">
-        <v>224</v>
-      </c>
-      <c r="O16" t="s">
-        <v>225</v>
-      </c>
-      <c r="P16" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" t="s">
         <v>199</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>200</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E17" t="s">
         <v>201</v>
       </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
         <v>202</v>
       </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>203</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="H17" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I17" s="3">
         <v>31299158</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>339</v>
+      <c r="J17" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="L17" t="s">
-        <v>363</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>342</v>
+        <v>358</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="N17" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O17" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P17" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>17</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
       <c r="H18" t="s">
-        <v>345</v>
-      </c>
-      <c r="I18" s="4">
+        <v>340</v>
+      </c>
+      <c r="I18" s="3">
         <v>15489167</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>349</v>
+      <c r="J18" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="K18" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L18" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M18" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="N18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P18" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
         <v>28</v>
       </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="H19" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I19" s="3">
         <v>21102601</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>314</v>
+      <c r="J19" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="K19" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L19" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M19" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="N19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s">
         <v>34</v>
       </c>
-      <c r="G20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>219</v>
+      <c r="H20" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="I20" s="4">
-        <v>20562876</v>
-      </c>
-      <c r="J20" t="s">
-        <v>220</v>
+        <v>25814981</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="K20" t="s">
+        <v>211</v>
+      </c>
+      <c r="L20" t="s">
+        <v>212</v>
+      </c>
+      <c r="M20" t="s">
+        <v>311</v>
+      </c>
+      <c r="N20" t="s">
+        <v>220</v>
+      </c>
+      <c r="O20" t="s">
         <v>221</v>
-      </c>
-      <c r="L20" t="s">
-        <v>222</v>
-      </c>
-      <c r="M20" t="s">
-        <v>222</v>
-      </c>
-      <c r="N20" t="s">
-        <v>224</v>
-      </c>
-      <c r="O20" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
+        <v>62</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>382</v>
       </c>
       <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
         <v>33</v>
       </c>
-      <c r="F21" t="s">
-        <v>34</v>
-      </c>
       <c r="G21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="I21" s="8">
-        <v>25814981</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>218</v>
+        <v>64</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I21" s="3">
+        <v>17940045</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="M21" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="N21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O21" t="s">
-        <v>225</v>
+        <v>221</v>
+      </c>
+      <c r="P21" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="I22" s="6">
-        <v>19400806</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="P22" s="1"/>
+      <c r="A22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I22" s="3">
+        <v>26769357</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K22" t="s">
+        <v>314</v>
+      </c>
+      <c r="L22" t="s">
+        <v>318</v>
+      </c>
+      <c r="M22" t="s">
+        <v>251</v>
+      </c>
+      <c r="N22" t="s">
+        <v>220</v>
+      </c>
+      <c r="O22" t="s">
+        <v>221</v>
+      </c>
+      <c r="P22" t="s">
+        <v>317</v>
+      </c>
     </row>
-    <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
+        <v>132</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="E23" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>198</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="I23" s="4">
-        <v>30379079</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>241</v>
+        <v>134</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I23" s="3">
+        <v>22064543</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="L23" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="M23" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="N23" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O23" t="s">
-        <v>224</v>
+        <v>221</v>
+      </c>
+      <c r="P23" t="s">
+        <v>357</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="I24" s="4">
-        <v>14523113</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="K24" t="s">
-        <v>241</v>
-      </c>
-      <c r="L24" t="s">
-        <v>242</v>
-      </c>
-      <c r="M24" t="s">
-        <v>223</v>
-      </c>
-      <c r="N24" t="s">
-        <v>224</v>
-      </c>
-      <c r="O24" t="s">
-        <v>224</v>
-      </c>
-      <c r="P24" t="s">
-        <v>239</v>
+    <row r="24" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="I24" s="5">
+        <v>22064543</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I25" s="3">
+        <v>17921284</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" t="s">
+        <v>227</v>
+      </c>
+      <c r="L25" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" t="s">
+        <v>251</v>
+      </c>
+      <c r="N25" t="s">
+        <v>220</v>
+      </c>
+      <c r="O25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>82</v>
       </c>
-      <c r="H25" t="s">
-        <v>359</v>
-      </c>
-      <c r="I25">
-        <v>12458173</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="K25" t="s">
-        <v>241</v>
-      </c>
-      <c r="L25" t="s">
-        <v>352</v>
-      </c>
-      <c r="M25" t="s">
-        <v>223</v>
-      </c>
-      <c r="N25" t="s">
-        <v>224</v>
-      </c>
-      <c r="O25" t="s">
-        <v>224</v>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I26" s="3">
+        <v>27731336</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K26" t="s">
+        <v>286</v>
+      </c>
+      <c r="L26" t="s">
+        <v>290</v>
+      </c>
+      <c r="M26" t="s">
+        <v>251</v>
+      </c>
+      <c r="N26" t="s">
+        <v>220</v>
+      </c>
+      <c r="O26" t="s">
+        <v>221</v>
+      </c>
+      <c r="P26" t="s">
+        <v>288</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>179</v>
-      </c>
-      <c r="B26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>182</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>183</v>
-      </c>
-      <c r="H26" t="s">
-        <v>353</v>
-      </c>
-      <c r="I26">
-        <v>30995392</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="L26" t="s">
-        <v>355</v>
-      </c>
-      <c r="M26" t="s">
-        <v>223</v>
-      </c>
-      <c r="N26" t="s">
-        <v>224</v>
-      </c>
-      <c r="O26" t="s">
-        <v>224</v>
-      </c>
-      <c r="P26" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
+        <v>89</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" t="s">
-        <v>350</v>
-      </c>
-      <c r="I27">
-        <v>16873023</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>351</v>
+        <v>90</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I27" s="3">
+        <v>27731337</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="K27" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="L27" t="s">
-        <v>352</v>
+        <v>289</v>
       </c>
       <c r="M27" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="N27" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O27" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P27" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
+        <v>52</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="E28" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>173</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="I28" s="4">
-        <v>29019409</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>288</v>
+        <v>54</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I28" s="3">
+        <v>18331040</v>
+      </c>
+      <c r="J28" t="s">
+        <v>233</v>
       </c>
       <c r="K28" t="s">
-        <v>241</v>
-      </c>
-      <c r="L28" t="s">
-        <v>289</v>
+        <v>234</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="M28" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="N28" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O28" t="s">
-        <v>224</v>
+        <v>221</v>
+      </c>
+      <c r="P28" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
+        <v>42</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="E29" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>143</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I29" s="4">
-        <v>27005505</v>
-      </c>
-      <c r="J29" t="s">
-        <v>241</v>
+        <v>44</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I29" s="3">
+        <v>16208464</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="K29" t="s">
-        <v>318</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="M29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="N29" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O29" t="s">
-        <v>224</v>
+        <v>221</v>
+      </c>
+      <c r="P29" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>186</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
+        <v>127</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>188</v>
-      </c>
-      <c r="H30" t="s">
-        <v>353</v>
-      </c>
-      <c r="I30">
-        <v>30995393</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>357</v>
+        <v>129</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I30" s="3">
+        <v>20588302</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K30" t="s">
+        <v>276</v>
       </c>
       <c r="L30" t="s">
-        <v>364</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="N30" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O30" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P30" t="s">
-        <v>356</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I31" s="3">
+        <v>20562876</v>
+      </c>
+      <c r="J31" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" t="s">
+        <v>217</v>
+      </c>
+      <c r="L31" t="s">
+        <v>218</v>
+      </c>
+      <c r="M31" t="s">
+        <v>218</v>
+      </c>
+      <c r="N31" t="s">
+        <v>220</v>
+      </c>
+      <c r="O31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="I31" s="4">
-        <v>17940045</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="K31" t="s">
-        <v>245</v>
-      </c>
-      <c r="L31" t="s">
-        <v>246</v>
-      </c>
-      <c r="M31" t="s">
-        <v>215</v>
-      </c>
-      <c r="N31" t="s">
-        <v>224</v>
-      </c>
-      <c r="O31" t="s">
-        <v>225</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="B32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I32" s="8">
+        <v>19400806</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="7" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="I33" s="8">
+        <v>30379079</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>239</v>
       </c>
+      <c r="I34" s="8">
+        <v>14523113</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>235</v>
+      </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
-        <v>152</v>
-      </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>153</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="I32" s="4">
-        <v>26769357</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="K32" t="s">
-        <v>319</v>
-      </c>
-      <c r="L32" t="s">
-        <v>323</v>
-      </c>
-      <c r="M32" t="s">
-        <v>215</v>
-      </c>
-      <c r="N32" t="s">
-        <v>224</v>
-      </c>
-      <c r="O32" t="s">
-        <v>225</v>
-      </c>
-      <c r="P32" t="s">
-        <v>322</v>
+    <row r="35" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="I35" s="7">
+        <v>12458173</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
-        <v>134</v>
-      </c>
-      <c r="F33" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" t="s">
-        <v>135</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="I33" s="4">
-        <v>22064543</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="L33" t="s">
-        <v>299</v>
-      </c>
-      <c r="M33" t="s">
-        <v>215</v>
-      </c>
-      <c r="N33" t="s">
-        <v>224</v>
-      </c>
-      <c r="O33" t="s">
-        <v>225</v>
-      </c>
-      <c r="P33" t="s">
-        <v>362</v>
+    <row r="36" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="I36" s="7">
+        <v>30995392</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>351</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
-        <v>134</v>
-      </c>
-      <c r="F34" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" t="s">
+    <row r="37" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="I37" s="7">
+        <v>16873023</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="I38" s="8">
+        <v>29019409</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="I34" s="4">
-        <v>22064543</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="L34" t="s">
-        <v>299</v>
-      </c>
-      <c r="M34" t="s">
-        <v>215</v>
-      </c>
-      <c r="N34" t="s">
-        <v>224</v>
-      </c>
-      <c r="O34" t="s">
-        <v>225</v>
-      </c>
-      <c r="P34" t="s">
-        <v>362</v>
+      <c r="B39" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="I39" s="8">
+        <v>27005505</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="I35" s="4">
-        <v>17921284</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L35" t="s">
-        <v>234</v>
-      </c>
-      <c r="M35" t="s">
-        <v>215</v>
-      </c>
-      <c r="N35" t="s">
-        <v>224</v>
-      </c>
-      <c r="O35" t="s">
-        <v>225</v>
-      </c>
-      <c r="P35" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" t="s">
-        <v>88</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="I36" s="4">
-        <v>27731336</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="K36" t="s">
-        <v>291</v>
-      </c>
-      <c r="L36" t="s">
-        <v>295</v>
-      </c>
-      <c r="M36" t="s">
-        <v>215</v>
-      </c>
-      <c r="N36" t="s">
-        <v>224</v>
-      </c>
-      <c r="O36" t="s">
-        <v>225</v>
-      </c>
-      <c r="P36" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="I37" s="4">
-        <v>27731337</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="K37" t="s">
-        <v>296</v>
-      </c>
-      <c r="L37" t="s">
-        <v>294</v>
-      </c>
-      <c r="M37" t="s">
-        <v>215</v>
-      </c>
-      <c r="N37" t="s">
-        <v>224</v>
-      </c>
-      <c r="O37" t="s">
-        <v>225</v>
-      </c>
-      <c r="P37" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" t="s">
-        <v>55</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I38" s="4">
-        <v>18331040</v>
-      </c>
-      <c r="J38" t="s">
+    <row r="40" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="I40" s="7">
+        <v>30995393</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K38" t="s">
-        <v>238</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="M38" t="s">
-        <v>215</v>
-      </c>
-      <c r="N38" t="s">
-        <v>224</v>
-      </c>
-      <c r="O38" t="s">
-        <v>225</v>
-      </c>
-      <c r="P38" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I39" s="4">
-        <v>16208464</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K39" t="s">
-        <v>226</v>
-      </c>
-      <c r="L39" t="s">
-        <v>228</v>
-      </c>
-      <c r="M39" t="s">
-        <v>215</v>
-      </c>
-      <c r="N39" t="s">
-        <v>224</v>
-      </c>
-      <c r="O39" t="s">
-        <v>225</v>
-      </c>
-      <c r="P39" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
-        <v>129</v>
-      </c>
-      <c r="F40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G40" t="s">
-        <v>130</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="I40" s="4">
-        <v>20588302</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="K40" t="s">
-        <v>281</v>
-      </c>
-      <c r="L40" t="s">
-        <v>282</v>
-      </c>
-      <c r="M40" t="s">
-        <v>215</v>
-      </c>
-      <c r="N40" t="s">
-        <v>225</v>
-      </c>
-      <c r="O40" t="s">
-        <v>225</v>
-      </c>
-      <c r="P40" t="s">
-        <v>284</v>
+      <c r="L40" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P43">
-    <sortCondition ref="M2:M43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P40">
+    <sortCondition descending="1" ref="O1:O40"/>
   </sortState>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J22" r:id="rId1" display="https://doi.org/10.1111/j.1365-2958.2009.06708.x"/>
-    <hyperlink ref="J21" r:id="rId2" display="https://dx.doi.org/10.3389%2Ffmicb.2015.00170"/>
-    <hyperlink ref="J39" r:id="rId3" display="https://doi.org/10.1007/s10295-005-0028-5"/>
-    <hyperlink ref="J35" r:id="rId4" display="https://doi.org/10.1128/aem.01475-07"/>
-    <hyperlink ref="J24" r:id="rId5" display="https://doi.org/10.1099/mic.0.26528-0"/>
-    <hyperlink ref="J31" r:id="rId6" display="https://doi.org/10.1073/pnas.0708242104"/>
+    <hyperlink ref="J32" r:id="rId1" display="https://doi.org/10.1111/j.1365-2958.2009.06708.x"/>
+    <hyperlink ref="J20" r:id="rId2" display="https://dx.doi.org/10.3389%2Ffmicb.2015.00170"/>
+    <hyperlink ref="J29" r:id="rId3" display="https://doi.org/10.1007/s10295-005-0028-5"/>
+    <hyperlink ref="J25" r:id="rId4" display="https://doi.org/10.1128/aem.01475-07"/>
+    <hyperlink ref="J34" r:id="rId5" display="https://doi.org/10.1099/mic.0.26528-0"/>
+    <hyperlink ref="J21" r:id="rId6" display="https://doi.org/10.1073/pnas.0708242104"/>
     <hyperlink ref="J14" r:id="rId7" display="https://doi.org/10.1038/ja.2009.38"/>
     <hyperlink ref="J6" r:id="rId8" display="https://doi.org/10.1002/anie.201707996"/>
     <hyperlink ref="J16" r:id="rId9" display="https://doi.org/10.1038/nchembio.1573"/>
@@ -4344,27 +4455,27 @@
     <hyperlink ref="J11" r:id="rId13" display="https://doi.org/10.1074/jbc.m112.401026"/>
     <hyperlink ref="J12" r:id="rId14" display="https://doi.org/10.1002/anie.201200327"/>
     <hyperlink ref="J13" r:id="rId15" display="https://doi.org/10.1186/s12934-016-0559-7"/>
-    <hyperlink ref="J28" r:id="rId16" tooltip="DOI URL" display="https://doi.org/10.1021/acs.orglett.7b02878"/>
-    <hyperlink ref="J36" r:id="rId17" display="https://doi.org/10.1038/ja.2016.123"/>
-    <hyperlink ref="J37" r:id="rId18" display="https://doi.org/10.1038/ja.2016.123"/>
-    <hyperlink ref="J33" r:id="rId19" display="https://doi.org/10.1128/aac.05278-11"/>
-    <hyperlink ref="J34" r:id="rId20" display="https://doi.org/10.1128/aac.05278-11"/>
+    <hyperlink ref="J38" r:id="rId16" tooltip="DOI URL" display="https://doi.org/10.1021/acs.orglett.7b02878"/>
+    <hyperlink ref="J26" r:id="rId17" display="https://doi.org/10.1038/ja.2016.123"/>
+    <hyperlink ref="J27" r:id="rId18" display="https://doi.org/10.1038/ja.2016.123"/>
+    <hyperlink ref="J23" r:id="rId19" display="https://doi.org/10.1128/aac.05278-11"/>
+    <hyperlink ref="J24" r:id="rId20" display="https://doi.org/10.1128/aac.05278-11"/>
     <hyperlink ref="J2" r:id="rId21" display="https://dx.doi.org/10.1074%2Fjbc.M115.646414"/>
     <hyperlink ref="J3" r:id="rId22" display="https://doi.org/10.1016/j.tet.2011.05.106"/>
     <hyperlink ref="J4" r:id="rId23" display="https://doi.org/10.1016/s0378-1119(02)00396-7"/>
     <hyperlink ref="J19" r:id="rId24" display="https://doi.org/10.1038/ja.2010.145"/>
-    <hyperlink ref="J32" r:id="rId25" display="https://doi.org/10.1002/cbic.201500467"/>
+    <hyperlink ref="J22" r:id="rId25" display="https://doi.org/10.1002/cbic.201500467"/>
     <hyperlink ref="J5" r:id="rId26" display="https://doi.org/10.1038/ja.2016.40"/>
     <hyperlink ref="J8" r:id="rId27" display="https://doi.org/10.1073/pnas.1213892110"/>
-    <hyperlink ref="J23" r:id="rId28" display="https://doi.org/10.1021/acs.orglett.8b03160"/>
+    <hyperlink ref="J33" r:id="rId28" display="https://doi.org/10.1021/acs.orglett.8b03160"/>
     <hyperlink ref="J17" r:id="rId29" tooltip="DOI URL" display="https://doi.org/10.1021/acs.orglett.9b01891"/>
     <hyperlink ref="J18" r:id="rId30" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.chembiol.2004.08.016"/>
-    <hyperlink ref="J27" r:id="rId31" display="https://doi.org/10.1016/j.chembiol.2006.05.013"/>
-    <hyperlink ref="J26" r:id="rId32" display="https://doi.org/10.1021/acschembio.9b00238"/>
-    <hyperlink ref="J30" r:id="rId33" display="https://doi.org/10.1021/acschembio.9b00238"/>
-    <hyperlink ref="J25" r:id="rId34" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/S0378-1135(02)00292-4"/>
+    <hyperlink ref="J37" r:id="rId31" display="https://doi.org/10.1016/j.chembiol.2006.05.013"/>
+    <hyperlink ref="J36" r:id="rId32" display="https://doi.org/10.1021/acschembio.9b00238"/>
+    <hyperlink ref="J40" r:id="rId33" display="https://doi.org/10.1021/acschembio.9b00238"/>
+    <hyperlink ref="J35" r:id="rId34" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/S0378-1135(02)00292-4"/>
     <hyperlink ref="J9" r:id="rId35"/>
-    <hyperlink ref="J40" r:id="rId36"/>
+    <hyperlink ref="J30" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
